--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D996DB62-ECD1-43C1-904B-E664E41E3B76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>1 High</t>
+  </si>
+  <si>
+    <t>LG</t>
   </si>
   <si>
     <t>[A list of acceptance tests]</t>
@@ -174,47 +183,11 @@
   <si>
     <t>Verify that the user can search by expert name and  that the returned results are complete and correct.</t>
   </si>
-  <si>
-    <t>As an expert , I can add a topic</t>
-  </si>
-  <si>
-    <t>As a user, I can apply to be an expert</t>
-  </si>
-  <si>
-    <t>As an admin , I can accept or reject experts applications</t>
-  </si>
-  <si>
-    <t>the user get notification that the application is done and the admins can see this application</t>
-  </si>
-  <si>
-    <t>in case if acceptance the user become an expert and in case of rejection the user get notifiication that his application rejected</t>
-  </si>
-  <si>
-    <t>the topic added in the list of the expert's topics</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>XSM</t>
-  </si>
-  <si>
-    <t>2 Med</t>
-  </si>
-  <si>
-    <t>4 Low</t>
-  </si>
-  <si>
-    <t>3 Med</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -343,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -413,15 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,14 +989,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
@@ -1040,7 +1004,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1116,27 +1080,31 @@
     <row r="2" spans="1:19" ht="22.5">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="15" t="e">
         <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="J2" s="16" t="str">
+      <c r="J2" s="16">
         <f t="shared" ref="J2:J65" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K2" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1146,9 +1114,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M2" s="16" t="str">
+      <c r="M2" s="16">
         <f t="shared" ref="M2:M65" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N2" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1163,7 +1131,7 @@
         <v>[Theme, Epic, or Dept]</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="19" t="e">
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
@@ -1176,27 +1144,23 @@
     </row>
     <row r="3" spans="1:19" ht="45">
       <c r="A3" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>58</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="16">
+      <c r="J3" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K3" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1206,9 +1170,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N3" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1235,24 +1199,20 @@
     <row r="4" spans="1:19" ht="33.75">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>58</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="16">
+      <c r="J4" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K4" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1262,9 +1222,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N4" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1291,24 +1251,20 @@
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>58</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="16">
+      <c r="J5" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1318,9 +1274,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N5" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1346,25 +1302,21 @@
     </row>
     <row r="6" spans="1:19" ht="45">
       <c r="A6" s="9"/>
-      <c r="B6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="16">
+      <c r="J6" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K6" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1374,9 +1326,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N6" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1402,25 +1354,21 @@
     </row>
     <row r="7" spans="1:19" ht="33.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="B7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="16">
+      <c r="J7" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K7" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1430,9 +1378,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N7" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1698,27 +1646,23 @@
     </row>
     <row r="13" spans="1:19" ht="33.75">
       <c r="A13" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="16">
+      <c r="J13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K13" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1728,9 +1672,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N13" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1757,24 +1701,20 @@
     <row r="14" spans="1:19" ht="56.25">
       <c r="A14" s="9"/>
       <c r="B14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>58</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="16">
+      <c r="J14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K14" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1784,9 +1724,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N14" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1813,24 +1753,20 @@
     <row r="15" spans="1:19" ht="45">
       <c r="A15" s="9"/>
       <c r="B15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>57</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="16">
+      <c r="J15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="K15" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1840,9 +1776,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N15" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1917,24 +1853,20 @@
     <row r="17" spans="1:19" ht="33.75">
       <c r="A17" s="9"/>
       <c r="B17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>57</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="16">
+      <c r="J17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="K17" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1944,9 +1876,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N17" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2021,24 +1953,20 @@
     <row r="19" spans="1:19" ht="56.25">
       <c r="A19" s="9"/>
       <c r="B19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>57</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="16">
+      <c r="J19" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="K19" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2048,9 +1976,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N19" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2124,25 +2052,21 @@
     </row>
     <row r="21" spans="1:19" ht="33.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="B21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="16">
+      <c r="J21" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K21" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2152,9 +2076,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N21" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2180,25 +2104,21 @@
     </row>
     <row r="22" spans="1:19" ht="33.75">
       <c r="A22" s="9"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="16">
+      <c r="J22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K22" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2208,9 +2128,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N22" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2236,7 +2156,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="9"/>
-      <c r="B23" s="22"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -2330,27 +2250,19 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="22.5">
+    <row r="25" spans="1:19">
       <c r="A25" s="9"/>
-      <c r="B25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="16">
+      <c r="J25" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K25" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2360,9 +2272,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N25" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2381,9 +2293,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2434,27 +2346,19 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="33.75">
+    <row r="27" spans="1:19">
       <c r="A27" s="9"/>
-      <c r="B27" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="16">
+      <c r="J27" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K27" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2464,9 +2368,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N27" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2485,9 +2389,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2538,27 +2442,19 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="45">
+    <row r="29" spans="1:19">
       <c r="A29" s="9"/>
-      <c r="B29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="16">
+      <c r="J29" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K29" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2568,9 +2464,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="N29" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2589,9 +2485,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -51756,11 +51652,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -51771,7 +51667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D996DB62-ECD1-43C1-904B-E664E41E3B76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>1 High</t>
-  </si>
-  <si>
-    <t>LG</t>
   </si>
   <si>
     <t>[A list of acceptance tests]</t>
@@ -183,11 +174,47 @@
   <si>
     <t>Verify that the user can search by expert name and  that the returned results are complete and correct.</t>
   </si>
+  <si>
+    <t>As an expert , I can add a topic</t>
+  </si>
+  <si>
+    <t>As a user, I can apply to be an expert</t>
+  </si>
+  <si>
+    <t>As an admin , I can accept or reject experts applications</t>
+  </si>
+  <si>
+    <t>the user get notification that the application is done and the admins can see this application</t>
+  </si>
+  <si>
+    <t>in case if acceptance the user become an expert and in case of rejection the user get notifiication that his application rejected</t>
+  </si>
+  <si>
+    <t>the topic added in the list of the expert's topics</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>XSM</t>
+  </si>
+  <si>
+    <t>2 Med</t>
+  </si>
+  <si>
+    <t>4 Low</t>
+  </si>
+  <si>
+    <t>3 Med</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -316,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -386,6 +413,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,14 +1025,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
@@ -1004,7 +1040,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1080,58 +1116,54 @@
     <row r="2" spans="1:19" ht="22.5">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="15" t="e">
+        <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="16" t="str">
+        <f t="shared" ref="J2:J65" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
+        <v/>
+      </c>
+      <c r="K2" s="17" t="e">
+        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="16" t="e">
+        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="16" t="str">
+        <f t="shared" ref="M2:M65" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
+        <v/>
+      </c>
+      <c r="N2" s="16" t="e">
+        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" s="16" t="e">
+        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="18" t="str">
+        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
+        <v>[Theme, Epic, or Dept]</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="15" t="e">
-        <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="16">
-        <f t="shared" ref="J2:J65" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="16">
-        <f t="shared" ref="M2:M65" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="N2" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O2" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P2" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="R2" s="19" t="e">
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
@@ -1144,23 +1176,27 @@
     </row>
     <row r="3" spans="1:19" ht="45">
       <c r="A3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="16" t="str">
+      <c r="J3" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K3" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1170,9 +1206,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M3" s="16" t="str">
+      <c r="M3" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N3" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1199,20 +1235,24 @@
     <row r="4" spans="1:19" ht="33.75">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="16" t="str">
+      <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K4" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1222,9 +1262,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="16" t="str">
+      <c r="M4" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N4" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1251,20 +1291,24 @@
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="16" t="str">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K5" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1274,9 +1318,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="16" t="str">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N5" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1302,21 +1346,25 @@
     </row>
     <row r="6" spans="1:19" ht="45">
       <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="16" t="str">
+      <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K6" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1326,9 +1374,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="16" t="str">
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N6" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1354,21 +1402,25 @@
     </row>
     <row r="7" spans="1:19" ht="33.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="16" t="str">
+      <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K7" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1378,9 +1430,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="16" t="str">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N7" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1646,23 +1698,27 @@
     </row>
     <row r="13" spans="1:19" ht="33.75">
       <c r="A13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K13" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1672,9 +1728,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N13" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1701,20 +1757,24 @@
     <row r="14" spans="1:19" ht="56.25">
       <c r="A14" s="9"/>
       <c r="B14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="25" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K14" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1724,9 +1784,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N14" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1753,20 +1813,24 @@
     <row r="15" spans="1:19" ht="45">
       <c r="A15" s="9"/>
       <c r="B15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K15" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1776,9 +1840,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N15" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1853,20 +1917,24 @@
     <row r="17" spans="1:19" ht="33.75">
       <c r="A17" s="9"/>
       <c r="B17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E17" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K17" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1876,9 +1944,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="N17" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1953,20 +2021,24 @@
     <row r="19" spans="1:19" ht="56.25">
       <c r="A19" s="9"/>
       <c r="B19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K19" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1976,9 +2048,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="N19" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2052,21 +2124,25 @@
     </row>
     <row r="21" spans="1:19" ht="33.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K21" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2076,9 +2152,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N21" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2104,21 +2180,25 @@
     </row>
     <row r="22" spans="1:19" ht="33.75">
       <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K22" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2128,9 +2208,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N22" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2156,7 +2236,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -2250,19 +2330,27 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="22.5">
       <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K25" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2272,9 +2360,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N25" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2293,9 +2381,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S25" s="20" t="str">
+      <c r="S25" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2346,19 +2434,27 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="33.75">
       <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K27" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2368,9 +2464,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N27" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2389,9 +2485,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S27" s="20" t="str">
+      <c r="S27" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2442,19 +2538,27 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="45">
       <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2464,9 +2568,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="16">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N29" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2485,9 +2589,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S29" s="20" t="str">
+      <c r="S29" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -51652,11 +51756,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -51667,7 +51771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{30A063DB-B173-4A4A-BBE2-3070E48771CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -210,12 +216,126 @@
   <si>
     <t>3 Med</t>
   </si>
+  <si>
+    <t>Login/Sign up/Logout</t>
+  </si>
+  <si>
+    <t>• As an unregistered user I can sign up and fill the Sign up form.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Information from the form is stored in the registrations database.</t>
+  </si>
+  <si>
+    <t>• As a user I should be able to logout from Collab to end my session.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Redirection out from the website, having no access to the website.</t>
+  </si>
+  <si>
+    <t>• As an admin I should be able to logout from Collab to end my session.</t>
+  </si>
+  <si>
+    <t>Redirection out from the website, ending the session.</t>
+  </si>
+  <si>
+    <t>• As an unregistered user I should receive conformation email on sign up.</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Confirmation email is sent for further information on completing the sign up.</t>
+  </si>
+  <si>
+    <t>• As a registered user I can sign up using Facebook or any other linked account.</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Upon linking my facebook account or any other linked account I should receive confirmation email on completing the sign up.</t>
+  </si>
+  <si>
+    <t>• As a registered user I can login using my email and password.</t>
+  </si>
+  <si>
+    <t>You login succesfully and redirected to your home page.</t>
+  </si>
+  <si>
+    <t>I can't login unless I sign up.</t>
+  </si>
+  <si>
+    <t>• As an admin I can add other admins.</t>
+  </si>
+  <si>
+    <t>Title's profile is changed into admin.</t>
+  </si>
+  <si>
+    <t>• As an admin I can login with my email and password.</t>
+  </si>
+  <si>
+    <t>Examine/Select</t>
+  </si>
+  <si>
+    <t>• As an admin I can view profile of any registered user.</t>
+  </si>
+  <si>
+    <t>Admin is redirected to the registered user profile.</t>
+  </si>
+  <si>
+    <t>• As a registered user I can select an expert.</t>
+  </si>
+  <si>
+    <t>User now can either schedule the expert and have an appointment with the expert.</t>
+  </si>
+  <si>
+    <t>• As a registered user I can view an experts profile.</t>
+  </si>
+  <si>
+    <t>User is redirected to the experts profile.</t>
+  </si>
+  <si>
+    <t>• As a registered user I can view other users profile in a group session.</t>
+  </si>
+  <si>
+    <t>User is redirected to the profile of the user he selected from the group session.</t>
+  </si>
+  <si>
+    <t>• As a registered user I can compare between experts.</t>
+  </si>
+  <si>
+    <t>Experts profiles is shown for comparison.</t>
+  </si>
+  <si>
+    <t>• As an expert I can select a topic to talk about.</t>
+  </si>
+  <si>
+    <t>The topic is selected for the expert for discussion</t>
+  </si>
+  <si>
+    <t>• As a user I can view my requests and questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The requests are being viewed </t>
+  </si>
+  <si>
+    <t>You don’t have any requests yet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,8 +379,18 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF434343"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +433,36 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF5FF"/>
+        <bgColor rgb="FFFDF5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -343,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -423,11 +583,279 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF390C24"/>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7A1C4A"/>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAD507E"/>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCEA0B6"/>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDB8D2"/>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1E3E9"/>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF390C24"/>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF541235"/>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7A1C4A"/>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9B4770"/>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAD507E"/>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCA80A6"/>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCEA0B6"/>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCAAC6"/>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDB8D2"/>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3D9E4"/>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1E3E9"/>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7E9EF"/>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAEFF8"/>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA4C2F4"/>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6D9EEB"/>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1025,22 +1453,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2690,15 +3118,25 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
+    <row r="32" spans="1:19" ht="22.5">
+      <c r="A32" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="15"/>
       <c r="J32" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2733,20 +3171,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S32" s="20" t="str">
+      <c r="S32" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="22.5">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="15"/>
       <c r="J33" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2781,20 +3227,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S33" s="20" t="str">
+      <c r="S33" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="22.5">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="15"/>
       <c r="J34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2829,20 +3283,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S34" s="20" t="str">
+      <c r="S34" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="22.5">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2877,20 +3339,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S35" s="20" t="str">
+      <c r="S35" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="45">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="15"/>
       <c r="J36" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2925,20 +3395,30 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S36" s="20" t="str">
+      <c r="S36" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="22.5">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2973,20 +3453,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S37" s="20" t="str">
+      <c r="S37" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="15"/>
       <c r="J38" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3021,20 +3509,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S38" s="20" t="str">
+      <c r="S38" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="22.5">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="15"/>
       <c r="J39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3069,20 +3565,20 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S39" s="20" t="str">
+      <c r="S39" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="15"/>
       <c r="J40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3123,14 +3619,14 @@
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3171,14 +3667,14 @@
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3219,14 +3715,14 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3267,14 +3763,16 @@
       </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
+      <c r="A44" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3314,15 +3812,23 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
+    <row r="45" spans="1:19" ht="22.5">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="15"/>
       <c r="J45" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3357,20 +3863,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S45" s="20" t="str">
+      <c r="S45" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="22.5">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="15"/>
       <c r="J46" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3405,20 +3919,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S46" s="20" t="str">
+      <c r="S46" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="15"/>
       <c r="J47" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3453,20 +3975,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S47" s="20" t="str">
+      <c r="S47" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="22.5">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="15"/>
       <c r="J48" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3501,20 +4031,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S48" s="20" t="str">
+      <c r="S48" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="22.5">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3549,20 +4087,28 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S49" s="20" t="str">
+      <c r="S49" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="14"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="22.5">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="15"/>
       <c r="J50" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3597,20 +4143,30 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S50" s="20" t="str">
+      <c r="S50" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="15"/>
       <c r="J51" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3645,9 +4201,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S51" s="20" t="str">
+      <c r="S51" s="20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -51648,121 +52204,242 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1000">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="1"/>
+  <conditionalFormatting sqref="C1:C31 C52:C1000">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="2"/>
+  <conditionalFormatting sqref="C1:C31 C52:C1000">
+    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="3"/>
+  <conditionalFormatting sqref="C1:C31 C52:C1000">
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="4"/>
+  <conditionalFormatting sqref="C1:C31 C52:C1000">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"XSM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>"SM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
       <formula>"MD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
       <formula>"LG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
       <formula>"XLG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D1000">
+    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
       <formula>"XXLG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+  <conditionalFormatting sqref="C32:C51">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH(("1"),(C32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C51">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH(("2"),(C32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C51">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH(("3"),(C32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C51">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH(("4"),(C32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+      <formula>55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+      <formula>89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+      <formula>"XSM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+      <formula>"SM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+      <formula>"MD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+      <formula>"LG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+      <formula>"XLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D51">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+      <formula>"XXLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C31 C52:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D31 D52:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D32:D51" xr:uid="{A40094A3-AD05-4DE3-BAC8-EF421913345A}">
+      <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C32:C51" xr:uid="{48DFC084-06CD-47C2-AAA7-50B9A3006CA2}">
+      <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -51771,7 +52448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{30A063DB-B173-4A4A-BBE2-3070E48771CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AA6F83CE-12FA-40B5-BEAC-A8AF27E0A4C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,11 @@
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -330,12 +325,93 @@
   <si>
     <t>You don’t have any requests yet</t>
   </si>
+  <si>
+    <t>Chat Room</t>
+  </si>
+  <si>
+    <t>As an Expert , I want to have the option to voice call or video call in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>Video and Audio icons available for toggling with corresponding actions.</t>
+  </si>
+  <si>
+    <t>[Theme, Epic, or Dept]</t>
+  </si>
+  <si>
+    <t>As a User , I want to send text messages in chats in Public and Private Sessions.</t>
+  </si>
+  <si>
+    <t>View sent and received messages in session .</t>
+  </si>
+  <si>
+    <t>As a User , I want to exit the chat whenever I am done with my questions in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>Finishing the session with a re-direction to the rating bar and feedback template.</t>
+  </si>
+  <si>
+    <t>As an Expert , I want to rate the user in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>2 Medium</t>
+  </si>
+  <si>
+    <t>Submit a rating on the rating bar displayed.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>As an Expert , I want to limit users in chats in Public sessions.</t>
+  </si>
+  <si>
+    <t>Number of users never exceeds the limit I specififed.</t>
+  </si>
+  <si>
+    <t>As a User , I want to rate the expert after the session in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>As a User , I want to enable/disable video during sessions in Private and Public sessions.</t>
+  </si>
+  <si>
+    <t>3 Medium</t>
+  </si>
+  <si>
+    <t>Video icon available for toggling with corresponding actions.</t>
+  </si>
+  <si>
+    <t>As an Expert , I can give a feedback regarding the whole experience in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>Submit a brief description in the feedback template displayed.</t>
+  </si>
+  <si>
+    <t>As a User , I can give a feedback regarding the whole experience in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>As an Admin, I should access all public sessions.</t>
+  </si>
+  <si>
+    <t>Join availability for each public session.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to have the access to see all chats if it is a message feature in Public sessions.</t>
+  </si>
+  <si>
+    <t>Monitor on going conversations.</t>
+  </si>
+  <si>
+    <t>As an Expert, I have the access to exit the session at any time during Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>Exiting the session with a re-direction to rating bar and feeback template.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -389,8 +465,43 @@
       <sz val="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFD9D9D9"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF999999"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +574,12 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -500,10 +617,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -601,9 +719,50 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="46">
     <dxf>
@@ -1207,7 +1366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1259,7 +1418,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1467,8 +1626,8 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4350,580 +4509,576 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K55" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L55" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M55" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N55" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O55" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P55" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S55" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K56" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N56" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O56" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P56" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S56" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K57" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L57" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M57" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N57" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O57" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P57" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S57" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K58" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L58" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M58" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N58" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O58" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P58" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S58" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K59" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L59" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M59" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N59" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O59" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P59" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S59" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K60" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L60" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M60" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N60" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O60" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P60" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S60" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K61" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L61" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M61" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N61" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O61" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P61" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S61" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K62" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L62" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M62" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N62" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O62" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P62" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S62" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K63" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L63" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M63" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N63" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O63" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P63" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S63" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K64" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L64" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M64" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N64" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O64" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P64" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S64" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K65" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L65" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M65" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N65" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O65" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P65" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S65" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16" t="str">
-        <f t="shared" ref="J66:J129" si="3">IF(C66="1 High",1,IF(C66="2 Med",2,IF(C66="3 Med",3,IF(C66="4 Low",4,""))))</f>
-        <v/>
-      </c>
-      <c r="K66" s="17" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L66" s="16" t="e">
-        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M66" s="16" t="str">
-        <f t="shared" ref="M66:M129" si="4">IF(C66="1 High",4,IF(C66="2 Med",3,IF(C66="3 Med",2,IF(C66="4 Low",1,""))))</f>
-        <v/>
-      </c>
-      <c r="N66" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O66" s="16" t="e">
-        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P66" s="18" t="str">
-        <f ca="1">IFERROR(__xludf.dummyfunction("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="19" t="e">
-        <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S66" s="20" t="str">
-        <f t="shared" ref="S66:S129" si="5">IF(NOT(ISBLANK(B66)),ROW(),"")</f>
-        <v/>
+    <row r="55" spans="1:19" ht="38.25">
+      <c r="A55" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="44" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J55" s="45">
+        <v>1</v>
+      </c>
+      <c r="K55" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L55" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M55" s="45">
+        <v>4</v>
+      </c>
+      <c r="N55" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O55" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P55" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q55" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S55" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="25.5">
+      <c r="A56" s="50"/>
+      <c r="B56" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45">
+        <v>1</v>
+      </c>
+      <c r="K56" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="45">
+        <v>4</v>
+      </c>
+      <c r="N56" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O56" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P56" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S56" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="38.25">
+      <c r="A57" s="50"/>
+      <c r="B57" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="45">
+        <v>1</v>
+      </c>
+      <c r="K57" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L57" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M57" s="45">
+        <v>4</v>
+      </c>
+      <c r="N57" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O57" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P57" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S57" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="25.5">
+      <c r="A58" s="50"/>
+      <c r="B58" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L58" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M58" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N58" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O58" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P58" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S58" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="25.5">
+      <c r="A59" s="50"/>
+      <c r="B59" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="K59" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L59" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M59" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N59" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O59" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P59" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S59" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="25.5">
+      <c r="A60" s="50"/>
+      <c r="B60" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="K60" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L60" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M60" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N60" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O60" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P60" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S60" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="25.5">
+      <c r="A61" s="50"/>
+      <c r="B61" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="K61" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L61" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M61" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N61" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O61" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P61" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S61" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="25.5">
+      <c r="A62" s="50"/>
+      <c r="B62" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="K62" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L62" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M62" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N62" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O62" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P62" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S62" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="25.5">
+      <c r="A63" s="50"/>
+      <c r="B63" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="45">
+        <v>4</v>
+      </c>
+      <c r="K63" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L63" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M63" s="45">
+        <v>1</v>
+      </c>
+      <c r="N63" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O63" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P63" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S63" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="25.5">
+      <c r="A64" s="50"/>
+      <c r="B64" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="45">
+        <v>4</v>
+      </c>
+      <c r="K64" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L64" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M64" s="45">
+        <v>1</v>
+      </c>
+      <c r="N64" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O64" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P64" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S64" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="25.5">
+      <c r="A65" s="50"/>
+      <c r="B65" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K65" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L65" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M65" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N65" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O65" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P65" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S65" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="38.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="45">
+        <v>4</v>
+      </c>
+      <c r="K66" s="46" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L66" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M66" s="45">
+        <v>1</v>
+      </c>
+      <c r="N66" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O66" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P66" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="48" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S66" s="49">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4937,7 +5092,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="15"/>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J66:J129" si="3">IF(C67="1 High",1,IF(C67="2 Med",2,IF(C67="3 Med",3,IF(C67="4 Low",4,""))))</f>
         <v/>
       </c>
       <c r="K67" s="17" t="e">
@@ -4949,7 +5104,7 @@
         <v>#REF!</v>
       </c>
       <c r="M67" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M66:M129" si="4">IF(C67="1 High",4,IF(C67="2 Med",3,IF(C67="3 Med",2,IF(C67="4 Low",1,""))))</f>
         <v/>
       </c>
       <c r="N67" s="16" t="e">
@@ -4970,7 +5125,7 @@
         <v>#REF!</v>
       </c>
       <c r="S67" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="S66:S129" si="5">IF(NOT(ISBLANK(B67)),ROW(),"")</f>
         <v/>
       </c>
     </row>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AA6F83CE-12FA-40B5-BEAC-A8AF27E0A4C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{54DECCAB-BF93-4F30-9770-596EC9372E5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="145">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -405,6 +405,57 @@
   </si>
   <si>
     <t>Exiting the session with a re-direction to rating bar and feeback template.</t>
+  </si>
+  <si>
+    <t>[Reservation]:</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to request for the expert I need</t>
+  </si>
+  <si>
+    <t>we can pop up a message saying "request sent"</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to choose if it is public or private session in the request</t>
+  </si>
+  <si>
+    <t>the user has to see a drop down list of public or private options</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to send to 1-3 experts my question</t>
+  </si>
+  <si>
+    <t>I can remove the expert from the list of available experts after sending the question</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to choose from the available slots</t>
+  </si>
+  <si>
+    <t>upon choosing a slot it changes its color</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to receive the URL of the chat room</t>
+  </si>
+  <si>
+    <t>the user has to receive an email with the url and a notification on the website that the email has been sent</t>
+  </si>
+  <si>
+    <t>as an Expert I want to be able to accept/reject the asked questions from the users</t>
+  </si>
+  <si>
+    <t>for the rejected question we can remove it from the list, and for the accepted question color turns green</t>
+  </si>
+  <si>
+    <t>as an Expert I want to be able to send the available  slots for the requesting user</t>
+  </si>
+  <si>
+    <t>pop up a message "Slots are sent"</t>
+  </si>
+  <si>
+    <t>as an Admin I want to be able to resend the undelievered messages to the right people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after hitting send the admin recieves a pop up message of the log of sent messages </t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1722,7 +1773,7 @@
         <v>#REF!</v>
       </c>
       <c r="J2" s="16" t="str">
-        <f t="shared" ref="J2:J65" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
+        <f t="shared" ref="J2:J54" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
         <v/>
       </c>
       <c r="K2" s="17" t="e">
@@ -1734,7 +1785,7 @@
         <v>#REF!</v>
       </c>
       <c r="M2" s="16" t="str">
-        <f t="shared" ref="M2:M65" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
+        <f t="shared" ref="M2:M54" si="1">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
         <v/>
       </c>
       <c r="N2" s="16" t="e">
@@ -1757,7 +1808,7 @@
         <v>#REF!</v>
       </c>
       <c r="S2" s="20" t="str">
-        <f t="shared" ref="S2:S65" si="2">IF(NOT(ISBLANK(B2)),ROW(),"")</f>
+        <f t="shared" ref="S2:S54" si="2">IF(NOT(ISBLANK(B2)),ROW(),"")</f>
         <v/>
       </c>
     </row>
@@ -5092,7 +5143,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="15"/>
       <c r="J67" s="16" t="str">
-        <f t="shared" ref="J66:J129" si="3">IF(C67="1 High",1,IF(C67="2 Med",2,IF(C67="3 Med",3,IF(C67="4 Low",4,""))))</f>
+        <f t="shared" ref="J67:J129" si="3">IF(C67="1 High",1,IF(C67="2 Med",2,IF(C67="3 Med",3,IF(C67="4 Low",4,""))))</f>
         <v/>
       </c>
       <c r="K67" s="17" t="e">
@@ -5104,7 +5155,7 @@
         <v>#REF!</v>
       </c>
       <c r="M67" s="16" t="str">
-        <f t="shared" ref="M66:M129" si="4">IF(C67="1 High",4,IF(C67="2 Med",3,IF(C67="3 Med",2,IF(C67="4 Low",1,""))))</f>
+        <f t="shared" ref="M67:M129" si="4">IF(C67="1 High",4,IF(C67="2 Med",3,IF(C67="3 Med",2,IF(C67="4 Low",1,""))))</f>
         <v/>
       </c>
       <c r="N67" s="16" t="e">
@@ -5125,7 +5176,7 @@
         <v>#REF!</v>
       </c>
       <c r="S67" s="20" t="str">
-        <f t="shared" ref="S66:S129" si="5">IF(NOT(ISBLANK(B67)),ROW(),"")</f>
+        <f t="shared" ref="S67:S129" si="5">IF(NOT(ISBLANK(B67)),ROW(),"")</f>
         <v/>
       </c>
     </row>
@@ -5178,7 +5229,9 @@
       </c>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="9"/>
+      <c r="A69" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
@@ -5227,17 +5280,25 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
+      <c r="B70" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="16" t="str">
+      <c r="J70" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K70" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5247,9 +5308,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M70" s="16" t="str">
+      <c r="M70" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N70" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5268,24 +5329,32 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S70" s="20" t="str">
+      <c r="S70" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
+      <c r="B71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="15"/>
-      <c r="J71" s="16" t="str">
+      <c r="J71" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K71" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5295,9 +5364,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M71" s="16" t="str">
+      <c r="M71" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N71" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5316,24 +5385,32 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S71" s="20" t="str">
+      <c r="S71" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
+      <c r="B72" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
       <c r="I72" s="15"/>
-      <c r="J72" s="16" t="str">
+      <c r="J72" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K72" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5343,9 +5420,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M72" s="16" t="str">
+      <c r="M72" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N72" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5364,9 +5441,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S72" s="20" t="str">
+      <c r="S72" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5419,17 +5496,25 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
+      <c r="B74" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="15"/>
-      <c r="J74" s="16" t="str">
+      <c r="J74" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K74" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5439,9 +5524,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M74" s="16" t="str">
+      <c r="M74" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N74" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5460,24 +5545,32 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S74" s="20" t="str">
+      <c r="S74" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
+      <c r="B75" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="15"/>
-      <c r="J75" s="16" t="str">
+      <c r="J75" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K75" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5487,9 +5580,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M75" s="16" t="str">
+      <c r="M75" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N75" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5508,9 +5601,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S75" s="20" t="str">
+      <c r="S75" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5611,17 +5704,25 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
+      <c r="B78" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="16" t="str">
+      <c r="J78" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K78" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5631,9 +5732,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M78" s="16" t="str">
+      <c r="M78" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N78" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5652,24 +5753,32 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S78" s="20" t="str">
+      <c r="S78" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
+      <c r="B79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="15"/>
-      <c r="J79" s="16" t="str">
+      <c r="J79" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K79" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5679,9 +5788,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M79" s="16" t="str">
+      <c r="M79" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N79" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5700,9 +5809,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S79" s="20" t="str">
+      <c r="S79" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5755,17 +5864,25 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
+      <c r="B81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="15"/>
-      <c r="J81" s="16" t="str">
+      <c r="J81" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K81" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -5775,9 +5892,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M81" s="16" t="str">
+      <c r="M81" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N81" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -5796,9 +5913,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S81" s="20" t="str">
+      <c r="S81" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:19">

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINA\Desktop\T17-Sprint2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{54DECCAB-BF93-4F30-9770-596EC9372E5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="185">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -457,11 +451,145 @@
   <si>
     <t xml:space="preserve">after hitting send the admin recieves a pop up message of the log of sent messages </t>
   </si>
+  <si>
+    <t>Manage Reservation</t>
+  </si>
+  <si>
+    <t>As a user I should be able to cancel a reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A pop-up message will appear to confirm the cancellation
+2.The slot will be removed from the user and the expert shecdule
+</t>
+  </si>
+  <si>
+    <t>As an expert, I should be able to cancel a reserved session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A pop-up message will appear to confirm the cancellation
+2.The slot will be removed from the expert and the user shecdule
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user  I want to be notified about any cancelled reservation. </t>
+  </si>
+  <si>
+    <t>1.A notification will be sent on the email and profile of the user</t>
+  </si>
+  <si>
+    <t>As an expert  I should be notified when a user changes any detail of a reserved slot</t>
+  </si>
+  <si>
+    <t>1.A notification will be sent on the email and profile of the expert</t>
+  </si>
+  <si>
+    <t>As an expert, I should be sent a notification if a user requested a cancellation</t>
+  </si>
+  <si>
+    <t>As a user I can view my reserved sessions</t>
+  </si>
+  <si>
+    <t>1.The user will be directed to his/her schedule</t>
+  </si>
+  <si>
+    <t>As a user I can reschedule a reservation timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.The expert will receive a notification on the email and profile
+2.The user will be sent new 3 slots to choose from </t>
+  </si>
+  <si>
+    <t>As an expert I can reschedule a reservation timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.The user will be sent 3 new slots to choose from or he/she can cancel the session
+3.If the user picked another slot the schedule of both the expert and the user will be updated</t>
+  </si>
+  <si>
+    <t>As a user I can change the communication method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A pop-up message will appear with the new session's info for the user to confirm
+2.A notification will be sent on the email and profile of the expert
+3.The schedule of the user and the expert will be updated </t>
+  </si>
+  <si>
+    <t>As an expert, I should be able to view all reserved slot'sinfo</t>
+  </si>
+  <si>
+    <t>1.The expert will be directed to his/her schedule</t>
+  </si>
+  <si>
+    <t>As a  user I can view other participantes in the group session</t>
+  </si>
+  <si>
+    <t>1.A list will appear with the participants usernames 
+2.The user will be redirected to any participant's profile upon clicking on his/her username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to change the status of a reserved slot </t>
+  </si>
+  <si>
+    <t>As an expert, I should be able to block users, so they can't book reservations with me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-A pop-up message will appear to ensure that the expert wants to block this certain user
+2.If the expert was in the user's favourite list he/she will be removed 
+3.The user will not be able to view the expert's profile
+4.The user will not get any results in the search about the expert </t>
+  </si>
+  <si>
+    <t>Favorite Experts</t>
+  </si>
+  <si>
+    <t>• As a user, I want to be able to add experts.</t>
+  </si>
+  <si>
+    <t>1-A pop-up message will appear to confirm that the experts has been added in the favorite experts</t>
+  </si>
+  <si>
+    <t>2- The user will find in the favorite experts the experts that he has choosen</t>
+  </si>
+  <si>
+    <t>• As a user, I want to be able to remove experts.</t>
+  </si>
+  <si>
+    <t>1-A pop-up message will appear to confirm that the experts has been removed in the favorite experts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- The user will find in the favorite experts that the expert has been removed </t>
+  </si>
+  <si>
+    <t>• As a user, I want to be able to book a session with an expert</t>
+  </si>
+  <si>
+    <t>1.a pop-up message will appear to confirm the reservation</t>
+  </si>
+  <si>
+    <t>• As a user, I want to be able to search through the experts in my favorite experts.</t>
+  </si>
+  <si>
+    <t>1- The name of the expert appears when the user search for it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• As a user, I want to be able to add notes to each expert </t>
+  </si>
+  <si>
+    <t>1.The added note will appear beside the expert's name in the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• As a user, I want to be able to navigate to each expert's profile page </t>
+  </si>
+  <si>
+    <t>1.The user will be directed to the expert profile page upon clicking on the expert's name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -813,9 +941,1371 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="184">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF390C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF541235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7A1C4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9B4770"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAD507E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCA80A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEA0B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCAAC6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDB8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D9E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1E3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF434343"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7E9EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1663,22 +3153,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5278,7 +6768,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" ht="22.5">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>129</v>
@@ -5334,7 +6824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" ht="22.5">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>131</v>
@@ -5390,7 +6880,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" ht="33.75">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>133</v>
@@ -5550,7 +7040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" ht="33.75">
       <c r="A75" s="9"/>
       <c r="B75" s="10" t="s">
         <v>137</v>
@@ -5702,7 +7192,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" ht="33.75">
       <c r="A78" s="9"/>
       <c r="B78" s="10" t="s">
         <v>139</v>
@@ -5862,7 +7352,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" ht="33.75">
       <c r="A81" s="9"/>
       <c r="B81" s="10" t="s">
         <v>143</v>
@@ -6014,19 +7504,31 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:19">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+    <row r="84" spans="1:19" ht="56.25">
+      <c r="A84" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="16" t="str">
+      <c r="J84" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K84" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6036,9 +7538,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M84" s="16" t="str">
+      <c r="M84" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N84" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6057,24 +7559,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S84" s="20" t="str">
+      <c r="S84" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="56.25">
+      <c r="A85" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
       <c r="I85" s="15"/>
-      <c r="J85" s="16" t="str">
+      <c r="J85" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K85" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6084,9 +7596,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M85" s="16" t="str">
+      <c r="M85" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N85" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6105,9 +7617,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S85" s="20" t="str">
+      <c r="S85" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6158,19 +7670,29 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:19">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
+    <row r="87" spans="1:19" ht="22.5">
+      <c r="A87" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
       <c r="I87" s="15"/>
-      <c r="J87" s="16" t="str">
+      <c r="J87" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K87" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6180,9 +7702,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M87" s="16" t="str">
+      <c r="M87" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N87" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6201,24 +7723,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S87" s="20" t="str">
+      <c r="S87" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="22.5">
+      <c r="A88" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="16" t="str">
+      <c r="J88" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K88" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6228,9 +7760,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M88" s="16" t="str">
+      <c r="M88" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N88" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6249,24 +7781,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S88" s="20" t="str">
+      <c r="S88" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="22.5">
+      <c r="A89" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="15"/>
-      <c r="J89" s="16" t="str">
+      <c r="J89" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K89" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6276,9 +7818,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M89" s="16" t="str">
+      <c r="M89" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N89" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6297,24 +7839,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S89" s="20" t="str">
+      <c r="S89" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="22.5">
+      <c r="A90" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
       <c r="I90" s="15"/>
-      <c r="J90" s="16" t="str">
+      <c r="J90" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K90" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6324,9 +7876,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M90" s="16" t="str">
+      <c r="M90" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N90" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6345,24 +7897,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S90" s="20" t="str">
+      <c r="S90" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="56.25">
+      <c r="A91" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
       <c r="I91" s="15"/>
-      <c r="J91" s="16" t="str">
+      <c r="J91" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K91" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6372,9 +7934,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M91" s="16" t="str">
+      <c r="M91" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N91" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6393,24 +7955,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S91" s="20" t="str">
+      <c r="S91" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="78.75">
+      <c r="A92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="16" t="str">
+      <c r="J92" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K92" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6420,9 +7992,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M92" s="16" t="str">
+      <c r="M92" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N92" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6441,24 +8013,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S92" s="20" t="str">
+      <c r="S92" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="78.75">
+      <c r="A93" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="15"/>
-      <c r="J93" s="16" t="str">
+      <c r="J93" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K93" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6468,9 +8050,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M93" s="16" t="str">
+      <c r="M93" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N93" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6489,24 +8071,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S93" s="20" t="str">
+      <c r="S93" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="22.5">
+      <c r="A94" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
       <c r="I94" s="15"/>
-      <c r="J94" s="16" t="str">
+      <c r="J94" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K94" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6516,9 +8108,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M94" s="16" t="str">
+      <c r="M94" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N94" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6537,24 +8129,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S94" s="20" t="str">
+      <c r="S94" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="56.25">
+      <c r="A95" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="15"/>
-      <c r="J95" s="16" t="str">
+      <c r="J95" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K95" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6564,9 +8166,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M95" s="16" t="str">
+      <c r="M95" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N95" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6585,24 +8187,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S95" s="20" t="str">
+      <c r="S95" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="78.75">
+      <c r="A96" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
       <c r="I96" s="15"/>
-      <c r="J96" s="16" t="str">
+      <c r="J96" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K96" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6612,9 +8224,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M96" s="16" t="str">
+      <c r="M96" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N96" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6633,24 +8245,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S96" s="20" t="str">
+      <c r="S96" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="101.25">
+      <c r="A97" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="15"/>
-      <c r="J97" s="16" t="str">
+      <c r="J97" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K97" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6660,9 +8282,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M97" s="16" t="str">
+      <c r="M97" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N97" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6681,9 +8303,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S97" s="20" t="str">
+      <c r="S97" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6782,19 +8404,29 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:19">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
+    <row r="100" spans="1:19" ht="33.75">
+      <c r="A100" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="15"/>
-      <c r="J100" s="16" t="str">
+      <c r="J100" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K100" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -6804,9 +8436,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M100" s="16" t="str">
+      <c r="M100" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N100" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -6825,17 +8457,19 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S100" s="20" t="str">
+      <c r="S100" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="22.5">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
+      <c r="E101" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
@@ -7022,19 +8656,29 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:19">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
+    <row r="105" spans="1:19" ht="33.75">
+      <c r="A105" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="15"/>
-      <c r="J105" s="16" t="str">
+      <c r="J105" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K105" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -7044,9 +8688,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M105" s="16" t="str">
+      <c r="M105" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N105" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -7065,17 +8709,19 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S105" s="20" t="str">
+      <c r="S105" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="33.75">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
+      <c r="E106" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -7214,19 +8860,29 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:19">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
+    <row r="109" spans="1:19" ht="22.5">
+      <c r="A109" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
       <c r="I109" s="15"/>
-      <c r="J109" s="16" t="str">
+      <c r="J109" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K109" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -7236,9 +8892,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M109" s="16" t="str">
+      <c r="M109" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N109" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -7257,24 +8913,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S109" s="20" t="str">
+      <c r="S109" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="22.5">
+      <c r="A110" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
       <c r="I110" s="15"/>
-      <c r="J110" s="16" t="str">
+      <c r="J110" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K110" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -7284,9 +8950,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M110" s="16" t="str">
+      <c r="M110" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N110" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -7305,24 +8971,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S110" s="20" t="str">
+      <c r="S110" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="22.5">
+      <c r="A111" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
       <c r="I111" s="15"/>
-      <c r="J111" s="16" t="str">
+      <c r="J111" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K111" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -7332,9 +9008,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M111" s="16" t="str">
+      <c r="M111" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N111" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -7353,24 +9029,34 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S111" s="20" t="str">
+      <c r="S111" s="20">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="33.75">
+      <c r="A112" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
       <c r="I112" s="15"/>
-      <c r="J112" s="16" t="str">
+      <c r="J112" s="16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K112" s="17" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -7380,9 +9066,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M112" s="16" t="str">
+      <c r="M112" s="16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N112" s="16" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -7401,9 +9087,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S112" s="20" t="str">
+      <c r="S112" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -52476,242 +54162,571 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C31 C52:C1000">
-    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="1"/>
+  <conditionalFormatting sqref="C1:C31 C52:C83 C86 C113:C1000">
+    <cfRule type="containsText" dxfId="183" priority="94" operator="containsText" text="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C31 C52:C1000">
-    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="2"/>
+  <conditionalFormatting sqref="C1:C31 C52:C83 C86 C113:C1000">
+    <cfRule type="containsText" dxfId="182" priority="95" operator="containsText" text="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C31 C52:C1000">
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="3"/>
+  <conditionalFormatting sqref="C1:C31 C52:C83 C86 C113:C1000">
+    <cfRule type="containsText" dxfId="181" priority="96" operator="containsText" text="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C31 C52:C1000">
-    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="4"/>
+  <conditionalFormatting sqref="C1:C31 C52:C83 C86 C113:C1000">
+    <cfRule type="containsText" dxfId="180" priority="97" operator="containsText" text="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="179" priority="98" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="178" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="177" priority="100" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="176" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="175" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="174" priority="103" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="173" priority="104" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="172" priority="105" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="171" priority="106" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="170" priority="107" operator="equal">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="169" priority="108" operator="equal">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="168" priority="109" operator="equal">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="167" priority="110" operator="equal">
       <formula>89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="166" priority="111" operator="equal">
       <formula>"XSM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="165" priority="112" operator="equal">
       <formula>"SM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="164" priority="113" operator="equal">
       <formula>"MD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="163" priority="114" operator="equal">
       <formula>"LG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="162" priority="115" operator="equal">
       <formula>"XLG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31 D52:D1000">
-    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+  <conditionalFormatting sqref="D2:D31 D52:D83 D86 D113:D1000">
+    <cfRule type="cellIs" dxfId="161" priority="116" operator="equal">
       <formula>"XXLG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C51">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="160" priority="70" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C51">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="159" priority="71" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH(("2"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C51">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="158" priority="72" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH(("3"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C51">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="157" priority="73" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH(("4"),(C32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="76" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="78" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="80" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="81" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="82" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="83" operator="equal">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="84" operator="equal">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="85" operator="equal">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="86" operator="equal">
       <formula>89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="87" operator="equal">
       <formula>"XSM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="88" operator="equal">
       <formula>"SM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="89" operator="equal">
       <formula>"MD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="90" operator="equal">
       <formula>"LG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="91" operator="equal">
       <formula>"XLG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D51">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="92" operator="equal">
       <formula>"XXLG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C31 C52:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <conditionalFormatting sqref="C84:C85">
+    <cfRule type="containsText" dxfId="137" priority="47" operator="containsText" text="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C85">
+    <cfRule type="containsText" dxfId="135" priority="48" operator="containsText" text="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C85">
+    <cfRule type="containsText" dxfId="133" priority="49" operator="containsText" text="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C85">
+    <cfRule type="containsText" dxfId="131" priority="50" operator="containsText" text="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="129" priority="51" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="127" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="125" priority="53" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="123" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="121" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="115" priority="58" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="113" priority="59" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="111" priority="60" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="109" priority="61" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="107" priority="62" operator="equal">
+      <formula>55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="105" priority="63" operator="equal">
+      <formula>89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="103" priority="64" operator="equal">
+      <formula>"XSM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="101" priority="65" operator="equal">
+      <formula>"SM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
+      <formula>"MD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="97" priority="67" operator="equal">
+      <formula>"LG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="95" priority="68" operator="equal">
+      <formula>"XLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D85">
+    <cfRule type="cellIs" dxfId="93" priority="69" operator="equal">
+      <formula>"XXLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C99 C109">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C99 C109">
+    <cfRule type="containsText" dxfId="89" priority="2" operator="containsText" text="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C99 C109">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C99 C109">
+    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="79" priority="7" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="73" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="61" priority="16" operator="equal">
+      <formula>55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
+      <formula>89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
+      <formula>"XSM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
+      <formula>"SM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+      <formula>"MD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+      <formula>"LG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
+      <formula>"XLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D99">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>"XXLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:C108 C110:C112">
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:C108 C110:C112">
+    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:C108 C110:C112">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:C108 C110:C112">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="19" priority="37" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="17" priority="38" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
+      <formula>55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="13" priority="40" operator="equal">
+      <formula>89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="11" priority="41" operator="equal">
+      <formula>"XSM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="9" priority="42" operator="equal">
+      <formula>"SM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="7" priority="43" operator="equal">
+      <formula>"MD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
+      <formula>"LG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="3" priority="45" operator="equal">
+      <formula>"XLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D112">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+      <formula>"XXLG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C31 C52:C99 C113:C1000 C109">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D31 D52:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D31 D52:D99 D113:D1000">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D32:D51" xr:uid="{A40094A3-AD05-4DE3-BAC8-EF421913345A}">
+    <dataValidation type="list" allowBlank="1" sqref="D32:D51">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C32:C51" xr:uid="{48DFC084-06CD-47C2-AAA7-50B9A3006CA2}">
+    <dataValidation type="list" allowBlank="1" sqref="C32:C51">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D100:D112">
+      <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C100:C108 C110:C112">
+      <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -52720,7 +54735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>
